--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderj/Documents/Publications/Journals/Ongoing Projects/Modeling_Soot_Consumption_with_Bayesian_Statisitics/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23540" windowHeight="23280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Note gri30.xml did not contain butane and 1-butene, so I used pentane and pentene instead.</t>
-  </si>
-  <si>
-    <t>Sharm TGA Data (2012)</t>
   </si>
   <si>
     <t>Temprature (C)</t>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Sharma TGA Data (2012)</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,6 +1079,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,13 +1131,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,49 +1177,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1878,7 +1869,7 @@
   <dimension ref="J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:DU84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
-      <selection activeCell="DW56" sqref="DW56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CV24" sqref="CV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,322 +2020,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="I2" s="76" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="I2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
-      <c r="P2" s="76" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="P2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="Y2" s="76" t="s">
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="88"/>
+      <c r="Y2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="78"/>
-      <c r="AF2" s="79" t="s">
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
+      <c r="AF2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="81"/>
-      <c r="AP2" s="76" t="s">
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
+      <c r="AP2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="78"/>
-      <c r="AY2" s="76" t="s">
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="88"/>
+      <c r="AY2" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="78"/>
-      <c r="BI2" s="76" t="s">
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="88"/>
+      <c r="BI2" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="77"/>
-      <c r="BN2" s="77"/>
-      <c r="BO2" s="77"/>
-      <c r="BP2" s="77"/>
-      <c r="BQ2" s="78"/>
-      <c r="BS2" s="76" t="s">
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="88"/>
+      <c r="BS2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="78"/>
-      <c r="BZ2" s="79" t="s">
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="88"/>
+      <c r="BZ2" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="CA2" s="80"/>
-      <c r="CB2" s="80"/>
-      <c r="CC2" s="80"/>
-      <c r="CD2" s="80"/>
-      <c r="CE2" s="80"/>
-      <c r="CF2" s="80"/>
-      <c r="CG2" s="80"/>
-      <c r="CH2" s="81"/>
-      <c r="CJ2" s="76" t="s">
+      <c r="CA2" s="90"/>
+      <c r="CB2" s="90"/>
+      <c r="CC2" s="90"/>
+      <c r="CD2" s="90"/>
+      <c r="CE2" s="90"/>
+      <c r="CF2" s="90"/>
+      <c r="CG2" s="90"/>
+      <c r="CH2" s="91"/>
+      <c r="CJ2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="CK2" s="77"/>
-      <c r="CL2" s="77"/>
-      <c r="CM2" s="77"/>
-      <c r="CN2" s="77"/>
-      <c r="CO2" s="77"/>
-      <c r="CP2" s="77"/>
-      <c r="CQ2" s="77"/>
-      <c r="CR2" s="78"/>
-      <c r="CT2" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="CU2" s="80"/>
-      <c r="CV2" s="80"/>
-      <c r="CW2" s="80"/>
-      <c r="CX2" s="80"/>
-      <c r="CY2" s="80"/>
-      <c r="CZ2" s="80"/>
-      <c r="DA2" s="81"/>
-      <c r="DC2" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="DD2" s="80"/>
-      <c r="DE2" s="80"/>
-      <c r="DF2" s="80"/>
-      <c r="DG2" s="80"/>
-      <c r="DH2" s="80"/>
-      <c r="DI2" s="80"/>
-      <c r="DJ2" s="80"/>
-      <c r="DK2" s="81"/>
-      <c r="DM2" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN2" s="80"/>
-      <c r="DO2" s="80"/>
-      <c r="DP2" s="80"/>
-      <c r="DQ2" s="80"/>
-      <c r="DR2" s="80"/>
-      <c r="DS2" s="80"/>
-      <c r="DT2" s="80"/>
-      <c r="DU2" s="81"/>
+      <c r="CK2" s="87"/>
+      <c r="CL2" s="87"/>
+      <c r="CM2" s="87"/>
+      <c r="CN2" s="87"/>
+      <c r="CO2" s="87"/>
+      <c r="CP2" s="87"/>
+      <c r="CQ2" s="87"/>
+      <c r="CR2" s="88"/>
+      <c r="CT2" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU2" s="90"/>
+      <c r="CV2" s="90"/>
+      <c r="CW2" s="90"/>
+      <c r="CX2" s="90"/>
+      <c r="CY2" s="90"/>
+      <c r="CZ2" s="90"/>
+      <c r="DA2" s="91"/>
+      <c r="DC2" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="DD2" s="90"/>
+      <c r="DE2" s="90"/>
+      <c r="DF2" s="90"/>
+      <c r="DG2" s="90"/>
+      <c r="DH2" s="90"/>
+      <c r="DI2" s="90"/>
+      <c r="DJ2" s="90"/>
+      <c r="DK2" s="91"/>
+      <c r="DM2" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="DN2" s="90"/>
+      <c r="DO2" s="90"/>
+      <c r="DP2" s="90"/>
+      <c r="DQ2" s="90"/>
+      <c r="DR2" s="90"/>
+      <c r="DS2" s="90"/>
+      <c r="DT2" s="90"/>
+      <c r="DU2" s="91"/>
     </row>
     <row r="3" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
-      <c r="I3" s="73" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="I3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="73" t="s">
+      <c r="J3" s="85"/>
+      <c r="K3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="P3" s="73" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="P3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="73" t="s">
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="75"/>
-      <c r="Y3" s="73" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="85"/>
+      <c r="Y3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="73" t="s">
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AF3" s="73" t="s">
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="85"/>
+      <c r="AF3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="85"/>
       <c r="AJ3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="AK3" s="73" t="s">
+      <c r="AK3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="75"/>
-      <c r="AP3" s="73" t="s">
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
+      <c r="AP3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="73" t="s">
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="73" t="s">
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="75"/>
-      <c r="AY3" s="73" t="s">
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="85"/>
+      <c r="AY3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="73" t="s">
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="75"/>
-      <c r="BI3" s="73" t="s">
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="85"/>
+      <c r="BI3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="73" t="s">
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="85"/>
+      <c r="BN3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="75"/>
-      <c r="BS3" s="73" t="s">
+      <c r="BO3" s="84"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="85"/>
+      <c r="BS3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="73" t="s">
+      <c r="BT3" s="85"/>
+      <c r="BU3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="75"/>
-      <c r="BZ3" s="73" t="s">
+      <c r="BV3" s="84"/>
+      <c r="BW3" s="84"/>
+      <c r="BX3" s="85"/>
+      <c r="BZ3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="CA3" s="74"/>
-      <c r="CB3" s="74"/>
-      <c r="CC3" s="74"/>
-      <c r="CD3" s="75"/>
-      <c r="CE3" s="73" t="s">
+      <c r="CA3" s="84"/>
+      <c r="CB3" s="84"/>
+      <c r="CC3" s="84"/>
+      <c r="CD3" s="85"/>
+      <c r="CE3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="CF3" s="74"/>
-      <c r="CG3" s="74"/>
-      <c r="CH3" s="75"/>
-      <c r="CJ3" s="73" t="s">
+      <c r="CF3" s="84"/>
+      <c r="CG3" s="84"/>
+      <c r="CH3" s="85"/>
+      <c r="CJ3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="CK3" s="74"/>
-      <c r="CL3" s="74"/>
-      <c r="CM3" s="75"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CM3" s="85"/>
       <c r="CN3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="CO3" s="73" t="s">
+      <c r="CO3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="74"/>
-      <c r="CQ3" s="74"/>
-      <c r="CR3" s="75"/>
-      <c r="CT3" s="73" t="s">
+      <c r="CP3" s="84"/>
+      <c r="CQ3" s="84"/>
+      <c r="CR3" s="85"/>
+      <c r="CT3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="CU3" s="75"/>
-      <c r="CV3" s="73" t="s">
+      <c r="CU3" s="85"/>
+      <c r="CV3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="CW3" s="75"/>
-      <c r="CX3" s="73" t="s">
+      <c r="CW3" s="85"/>
+      <c r="CX3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="CY3" s="74"/>
-      <c r="CZ3" s="74"/>
-      <c r="DA3" s="75"/>
-      <c r="DC3" s="73" t="s">
+      <c r="CY3" s="84"/>
+      <c r="CZ3" s="84"/>
+      <c r="DA3" s="85"/>
+      <c r="DC3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="DD3" s="74"/>
-      <c r="DE3" s="74"/>
-      <c r="DF3" s="74"/>
-      <c r="DG3" s="75"/>
-      <c r="DH3" s="73" t="s">
+      <c r="DD3" s="84"/>
+      <c r="DE3" s="84"/>
+      <c r="DF3" s="84"/>
+      <c r="DG3" s="85"/>
+      <c r="DH3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="DI3" s="74"/>
-      <c r="DJ3" s="74"/>
-      <c r="DK3" s="75"/>
-      <c r="DM3" s="73" t="s">
+      <c r="DI3" s="84"/>
+      <c r="DJ3" s="84"/>
+      <c r="DK3" s="85"/>
+      <c r="DM3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="DN3" s="74"/>
-      <c r="DO3" s="74"/>
-      <c r="DP3" s="74"/>
-      <c r="DQ3" s="75"/>
-      <c r="DR3" s="73" t="s">
+      <c r="DN3" s="84"/>
+      <c r="DO3" s="84"/>
+      <c r="DP3" s="84"/>
+      <c r="DQ3" s="85"/>
+      <c r="DR3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="DS3" s="74"/>
-      <c r="DT3" s="74"/>
-      <c r="DU3" s="75"/>
+      <c r="DS3" s="84"/>
+      <c r="DT3" s="84"/>
+      <c r="DU3" s="85"/>
     </row>
     <row r="4" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
@@ -2603,10 +2594,10 @@
         <v>8</v>
       </c>
       <c r="CT4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CU4" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="CU4" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="CV4" s="15" t="s">
         <v>32</v>
@@ -2657,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="DN4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO4" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="DO4" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="DP4" s="16" t="s">
         <v>32</v>
@@ -2771,11 +2762,11 @@
       <c r="AD5" s="7">
         <v>51.295781249999997</v>
       </c>
-      <c r="AF5" s="82" t="s">
+      <c r="AF5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
       <c r="AI5" s="7">
         <v>1.4137200000000001</v>
       </c>
@@ -3015,17 +3006,17 @@
         <f>DG5</f>
         <v>8.1059999999999999</v>
       </c>
-      <c r="DM5" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN5" s="96"/>
-      <c r="DO5" s="96"/>
-      <c r="DP5" s="96"/>
-      <c r="DQ5" s="96"/>
-      <c r="DR5" s="96"/>
-      <c r="DS5" s="96"/>
-      <c r="DT5" s="96"/>
-      <c r="DU5" s="97"/>
+      <c r="DM5" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN5" s="99"/>
+      <c r="DO5" s="99"/>
+      <c r="DP5" s="99"/>
+      <c r="DQ5" s="99"/>
+      <c r="DR5" s="99"/>
+      <c r="DS5" s="99"/>
+      <c r="DT5" s="99"/>
+      <c r="DU5" s="100"/>
     </row>
     <row r="6" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
@@ -3361,34 +3352,34 @@
         <f t="shared" ref="DK6:DK19" si="27">DG6</f>
         <v>7.0927499999999997</v>
       </c>
-      <c r="DM6" s="98">
+      <c r="DM6" s="73">
         <v>1003.8</v>
       </c>
-      <c r="DN6" s="99">
+      <c r="DN6" s="74">
         <v>7.6899999999999995E-13</v>
       </c>
-      <c r="DO6" s="100">
+      <c r="DO6" s="75">
         <v>9.3689999999999996E-2</v>
       </c>
-      <c r="DP6" s="100">
+      <c r="DP6" s="75">
         <v>30.854602570000001</v>
       </c>
-      <c r="DQ6" s="100">
+      <c r="DQ6" s="75">
         <v>0</v>
       </c>
-      <c r="DR6" s="111">
+      <c r="DR6" s="80">
         <f>DM6</f>
         <v>1003.8</v>
       </c>
-      <c r="DS6" s="112">
+      <c r="DS6" s="81">
         <f>DQ6*10</f>
         <v>0</v>
       </c>
-      <c r="DT6" s="112">
+      <c r="DT6" s="81">
         <f>DO6*101325</f>
         <v>9493.1392500000002</v>
       </c>
-      <c r="DU6" s="113">
+      <c r="DU6" s="82">
         <f>DN6*101325</f>
         <v>7.791892499999999E-8</v>
       </c>
@@ -3694,19 +3685,19 @@
         <f t="shared" si="27"/>
         <v>9.1192499999999992</v>
       </c>
-      <c r="DM7" s="98">
+      <c r="DM7" s="73">
         <v>1393.2</v>
       </c>
-      <c r="DN7" s="99">
+      <c r="DN7" s="74">
         <v>2.3099999999999997E-13</v>
       </c>
-      <c r="DO7" s="100">
+      <c r="DO7" s="75">
         <v>9.3363941908713999E-2</v>
       </c>
-      <c r="DP7" s="100">
+      <c r="DP7" s="75">
         <v>29.455658700000001</v>
       </c>
-      <c r="DQ7" s="100">
+      <c r="DQ7" s="75">
         <v>1.4925E-4</v>
       </c>
       <c r="DR7" s="36">
@@ -3945,19 +3936,19 @@
         <f t="shared" si="27"/>
         <v>7.0927499999999997</v>
       </c>
-      <c r="DM8" s="98">
+      <c r="DM8" s="73">
         <v>1476.3</v>
       </c>
-      <c r="DN8" s="99">
+      <c r="DN8" s="74">
         <v>8.4700000000000003E-13</v>
       </c>
-      <c r="DO8" s="100">
+      <c r="DO8" s="75">
         <v>9.3185518672199E-2</v>
       </c>
-      <c r="DP8" s="100">
+      <c r="DP8" s="75">
         <v>30.98309304</v>
       </c>
-      <c r="DQ8" s="100">
+      <c r="DQ8" s="75">
         <v>-1.15597E-4</v>
       </c>
       <c r="DR8" s="36">
@@ -4196,19 +4187,19 @@
         <f t="shared" si="27"/>
         <v>10.1325</v>
       </c>
-      <c r="DM9" s="98">
+      <c r="DM9" s="73">
         <v>1487.7</v>
       </c>
-      <c r="DN9" s="99">
+      <c r="DN9" s="74">
         <v>1.462E-12</v>
       </c>
-      <c r="DO9" s="100">
+      <c r="DO9" s="75">
         <v>9.3007095435685E-2</v>
       </c>
-      <c r="DP9" s="100">
+      <c r="DP9" s="75">
         <v>27.737434619999998</v>
       </c>
-      <c r="DQ9" s="100">
+      <c r="DQ9" s="75">
         <v>3.2583699999999999E-4</v>
       </c>
       <c r="DR9" s="36">
@@ -4450,19 +4441,19 @@
         <f t="shared" si="27"/>
         <v>10.1325</v>
       </c>
-      <c r="DM10" s="98">
+      <c r="DM10" s="73">
         <v>1529.6</v>
       </c>
-      <c r="DN10" s="99">
+      <c r="DN10" s="74">
         <v>5.2850000000000002E-12</v>
       </c>
-      <c r="DO10" s="100">
+      <c r="DO10" s="75">
         <v>9.2501648351647994E-2</v>
       </c>
-      <c r="DP10" s="100">
+      <c r="DP10" s="75">
         <v>31.211192050000001</v>
       </c>
-      <c r="DQ10" s="100">
+      <c r="DQ10" s="75">
         <v>-2.05193E-4</v>
       </c>
       <c r="DR10" s="36">
@@ -4659,19 +4650,19 @@
         <f t="shared" si="27"/>
         <v>30.397500000000001</v>
       </c>
-      <c r="DM11" s="98">
+      <c r="DM11" s="73">
         <v>1545.2</v>
       </c>
-      <c r="DN11" s="99">
+      <c r="DN11" s="74">
         <v>1.9295999999999999E-11</v>
       </c>
-      <c r="DO11" s="100">
+      <c r="DO11" s="75">
         <v>9.1656153846153998E-2</v>
       </c>
-      <c r="DP11" s="100">
+      <c r="DP11" s="75">
         <v>27.93647425</v>
       </c>
-      <c r="DQ11" s="100">
+      <c r="DQ11" s="75">
         <v>2.30041E-4</v>
       </c>
       <c r="DR11" s="36">
@@ -4868,19 +4859,19 @@
         <f t="shared" si="27"/>
         <v>6.0795000000000003</v>
       </c>
-      <c r="DM12" s="98">
+      <c r="DM12" s="73">
         <v>1529.4</v>
       </c>
-      <c r="DN12" s="99">
+      <c r="DN12" s="74">
         <v>6.3306000000000003E-11</v>
       </c>
-      <c r="DO12" s="100">
+      <c r="DO12" s="75">
         <v>9.0490439560440006E-2</v>
       </c>
-      <c r="DP12" s="100">
+      <c r="DP12" s="75">
         <v>25.74449345</v>
       </c>
-      <c r="DQ12" s="100">
+      <c r="DQ12" s="75">
         <v>1.49636E-4</v>
       </c>
       <c r="DR12" s="36">
@@ -4921,11 +4912,11 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="AF13" s="82" t="s">
+      <c r="AF13" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="5"/>
@@ -5063,19 +5054,19 @@
         <f t="shared" si="27"/>
         <v>101.325</v>
       </c>
-      <c r="DM13" s="98">
+      <c r="DM13" s="73">
         <v>1525.5</v>
       </c>
-      <c r="DN13" s="99">
+      <c r="DN13" s="74">
         <v>2.0094099999999999E-10</v>
       </c>
-      <c r="DO13" s="100">
+      <c r="DO13" s="75">
         <v>8.8885604395604001E-2</v>
       </c>
-      <c r="DP13" s="100">
+      <c r="DP13" s="75">
         <v>26.325749640000002</v>
       </c>
-      <c r="DQ13" s="101">
+      <c r="DQ13" s="76">
         <v>-2.9279199999999999E-5</v>
       </c>
       <c r="DR13" s="36">
@@ -5272,19 +5263,19 @@
         <f t="shared" si="27"/>
         <v>101.325</v>
       </c>
-      <c r="DM14" s="98">
+      <c r="DM14" s="73">
         <v>1530.1</v>
       </c>
-      <c r="DN14" s="99">
+      <c r="DN14" s="74">
         <v>6.3099999999999999E-10</v>
       </c>
-      <c r="DO14" s="100">
+      <c r="DO14" s="75">
         <v>8.6694285714286001E-2</v>
       </c>
-      <c r="DP14" s="100">
+      <c r="DP14" s="75">
         <v>24.750159310000001</v>
       </c>
-      <c r="DQ14" s="101">
+      <c r="DQ14" s="76">
         <v>9.5767000000000007E-5</v>
       </c>
       <c r="DR14" s="36">
@@ -5481,19 +5472,19 @@
         <f t="shared" si="27"/>
         <v>9.1192499999999992</v>
       </c>
-      <c r="DM15" s="98">
+      <c r="DM15" s="73">
         <v>1525.3</v>
       </c>
-      <c r="DN15" s="99">
+      <c r="DN15" s="74">
         <v>1.9454540000000002E-9</v>
       </c>
-      <c r="DO15" s="100">
+      <c r="DO15" s="75">
         <v>8.3790601092896003E-2</v>
       </c>
-      <c r="DP15" s="100">
+      <c r="DP15" s="75">
         <v>25.837172710000001</v>
       </c>
-      <c r="DQ15" s="101">
+      <c r="DQ15" s="76">
         <v>-1.76242E-5</v>
       </c>
       <c r="DR15" s="36">
@@ -5671,19 +5662,19 @@
         <f t="shared" si="27"/>
         <v>607.95000000000005</v>
       </c>
-      <c r="DM16" s="98">
+      <c r="DM16" s="73">
         <v>1511.8</v>
       </c>
-      <c r="DN16" s="99">
+      <c r="DN16" s="74">
         <v>6.4251429999999997E-9</v>
       </c>
-      <c r="DO16" s="100">
+      <c r="DO16" s="75">
         <v>7.9982472527472995E-2</v>
       </c>
-      <c r="DP16" s="100">
+      <c r="DP16" s="75">
         <v>29.58935443</v>
       </c>
-      <c r="DQ16" s="100">
+      <c r="DQ16" s="75">
         <v>-2.7728099999999999E-4</v>
       </c>
       <c r="DR16" s="36">
@@ -5861,19 +5852,19 @@
         <f t="shared" si="27"/>
         <v>60.795000000000002</v>
       </c>
-      <c r="DM17" s="98">
+      <c r="DM17" s="73">
         <v>1521.3</v>
       </c>
-      <c r="DN17" s="99">
+      <c r="DN17" s="74">
         <v>2.6577143E-8</v>
       </c>
-      <c r="DO17" s="100">
+      <c r="DO17" s="75">
         <v>7.4984175824176005E-2</v>
       </c>
-      <c r="DP17" s="100">
+      <c r="DP17" s="75">
         <v>27.656719620000001</v>
       </c>
-      <c r="DQ17" s="100">
+      <c r="DQ17" s="75">
         <v>1.4957999999999999E-4</v>
       </c>
       <c r="DR17" s="36">
@@ -6051,19 +6042,19 @@
         <f t="shared" si="27"/>
         <v>81.06</v>
       </c>
-      <c r="DM18" s="98">
+      <c r="DM18" s="73">
         <v>1495.5</v>
       </c>
-      <c r="DN18" s="99">
+      <c r="DN18" s="74">
         <v>1.2977999999999999E-7</v>
       </c>
-      <c r="DO18" s="100">
+      <c r="DO18" s="75">
         <v>6.8670666666667005E-2</v>
       </c>
-      <c r="DP18" s="100">
+      <c r="DP18" s="75">
         <v>26.030548450000001</v>
       </c>
-      <c r="DQ18" s="100">
+      <c r="DQ18" s="75">
         <v>1.00629E-4</v>
       </c>
       <c r="DR18" s="36">
@@ -6210,19 +6201,19 @@
         <f t="shared" si="27"/>
         <v>81.06</v>
       </c>
-      <c r="DM19" s="98">
+      <c r="DM19" s="73">
         <v>1505.9</v>
       </c>
-      <c r="DN19" s="99">
+      <c r="DN19" s="74">
         <v>1.2920399999999999E-6</v>
       </c>
-      <c r="DO19" s="100">
+      <c r="DO19" s="75">
         <v>6.0181999999999999E-2</v>
       </c>
-      <c r="DP19" s="100">
+      <c r="DP19" s="75">
         <v>23.666235499999999</v>
       </c>
-      <c r="DQ19" s="100">
+      <c r="DQ19" s="75">
         <v>2.04506E-4</v>
       </c>
       <c r="DR19" s="36">
@@ -6314,19 +6305,19 @@
       <c r="DA20" s="7">
         <v>0</v>
       </c>
-      <c r="DM20" s="98">
+      <c r="DM20" s="73">
         <v>1503.6</v>
       </c>
-      <c r="DN20" s="99">
+      <c r="DN20" s="74">
         <v>1.0124826087E-5</v>
       </c>
-      <c r="DO20" s="100">
+      <c r="DO20" s="75">
         <v>4.9221304347825998E-2</v>
       </c>
-      <c r="DP20" s="100">
+      <c r="DP20" s="75">
         <v>22.351665310000001</v>
       </c>
-      <c r="DQ20" s="100">
+      <c r="DQ20" s="75">
         <v>2.9025699999999998E-4</v>
       </c>
       <c r="DR20" s="36">
@@ -6414,19 +6405,19 @@
       <c r="DA21" s="7">
         <v>0</v>
       </c>
-      <c r="DM21" s="98">
+      <c r="DM21" s="73">
         <v>1483.7</v>
       </c>
-      <c r="DN21" s="99">
+      <c r="DN21" s="74">
         <v>5.9166086957E-5</v>
       </c>
-      <c r="DO21" s="100">
+      <c r="DO21" s="75">
         <v>3.5839999999999997E-2</v>
       </c>
-      <c r="DP21" s="100">
+      <c r="DP21" s="75">
         <v>19.873748639999999</v>
       </c>
-      <c r="DQ21" s="100">
+      <c r="DQ21" s="75">
         <v>3.1997599999999997E-4</v>
       </c>
       <c r="DR21" s="36">
@@ -6514,19 +6505,19 @@
       <c r="DA22" s="21">
         <v>0</v>
       </c>
-      <c r="DM22" s="98">
+      <c r="DM22" s="73">
         <v>1493.2</v>
       </c>
-      <c r="DN22" s="99">
+      <c r="DN22" s="74">
         <v>3.21354545455E-4</v>
       </c>
-      <c r="DO22" s="100">
+      <c r="DO22" s="75">
         <v>2.2478181818182001E-2</v>
       </c>
-      <c r="DP22" s="100">
+      <c r="DP22" s="75">
         <v>18.430374260000001</v>
       </c>
-      <c r="DQ22" s="100">
+      <c r="DQ22" s="75">
         <v>5.0484599999999998E-4</v>
       </c>
       <c r="DR22" s="36">
@@ -6608,20 +6599,20 @@
       <c r="CW23" s="63"/>
       <c r="CX23" s="63"/>
       <c r="CY23" s="63"/>
-      <c r="DM23" s="98">
+      <c r="DM23" s="73">
         <f>(DM22+DM24)/2</f>
         <v>1487.8000000000002</v>
       </c>
-      <c r="DN23" s="99">
+      <c r="DN23" s="74">
         <v>1.1326666666670001E-3</v>
       </c>
-      <c r="DO23" s="100">
+      <c r="DO23" s="75">
         <v>1.461E-2</v>
       </c>
-      <c r="DP23" s="100">
+      <c r="DP23" s="75">
         <v>16.48719238</v>
       </c>
-      <c r="DQ23" s="100">
+      <c r="DQ23" s="75">
         <v>5.7357999999999997E-4</v>
       </c>
       <c r="DR23" s="36">
@@ -6642,11 +6633,11 @@
       </c>
     </row>
     <row r="24" spans="9:125" x14ac:dyDescent="0.2">
-      <c r="AF24" s="82" t="s">
+      <c r="AF24" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="5"/>
@@ -6673,19 +6664,19 @@
       <c r="BX24" s="7">
         <v>10.553553504375</v>
       </c>
-      <c r="DM24" s="98">
+      <c r="DM24" s="73">
         <v>1482.4</v>
       </c>
-      <c r="DN24" s="99">
+      <c r="DN24" s="74">
         <v>1.5338901098900001E-3</v>
       </c>
-      <c r="DO24" s="100">
+      <c r="DO24" s="75">
         <v>1.1122307692308001E-2</v>
       </c>
-      <c r="DP24" s="100">
+      <c r="DP24" s="75">
         <v>10.6421835</v>
       </c>
-      <c r="DQ24" s="100">
+      <c r="DQ24" s="75">
         <v>1.1811759999999999E-3</v>
       </c>
       <c r="DR24" s="36">
@@ -6751,19 +6742,19 @@
       <c r="BX25" s="7">
         <v>11.998961114175</v>
       </c>
-      <c r="DM25" s="98">
+      <c r="DM25" s="73">
         <v>1475.2</v>
       </c>
-      <c r="DN25" s="99">
+      <c r="DN25" s="74">
         <v>1.6246428571429999E-3</v>
       </c>
-      <c r="DO25" s="100">
+      <c r="DO25" s="75">
         <v>9.3904340659339992E-3</v>
       </c>
-      <c r="DP25" s="100">
+      <c r="DP25" s="75">
         <v>7.7436524459999996</v>
       </c>
-      <c r="DQ25" s="100">
+      <c r="DQ25" s="75">
         <v>4.5471699999999999E-4</v>
       </c>
       <c r="DR25" s="36">
@@ -6829,19 +6820,19 @@
       <c r="BX26" s="7">
         <v>5.6264636038800004</v>
       </c>
-      <c r="DM26" s="98">
+      <c r="DM26" s="73">
         <v>1472</v>
       </c>
-      <c r="DN26" s="99">
+      <c r="DN26" s="74">
         <v>1.6646263736259999E-3</v>
       </c>
-      <c r="DO26" s="100">
+      <c r="DO26" s="75">
         <v>8.3249230769230007E-3</v>
       </c>
-      <c r="DP26" s="100">
+      <c r="DP26" s="75">
         <v>7.3360299229999999</v>
       </c>
-      <c r="DQ26" s="101">
+      <c r="DQ26" s="76">
         <v>6.6721E-5</v>
       </c>
       <c r="DR26" s="36">
@@ -6926,19 +6917,19 @@
       <c r="DI27" s="63"/>
       <c r="DJ27" s="63"/>
       <c r="DK27" s="63"/>
-      <c r="DM27" s="98">
+      <c r="DM27" s="73">
         <v>1469.9</v>
       </c>
-      <c r="DN27" s="99">
+      <c r="DN27" s="74">
         <v>1.595403846154E-3</v>
       </c>
-      <c r="DO27" s="100">
+      <c r="DO27" s="75">
         <v>7.5904038461540001E-3</v>
       </c>
-      <c r="DP27" s="100">
+      <c r="DP27" s="75">
         <v>7.3069673670000004</v>
       </c>
-      <c r="DQ27" s="101">
+      <c r="DQ27" s="76">
         <v>3.4444499999999999E-5</v>
       </c>
       <c r="DR27" s="36">
@@ -7004,20 +6995,20 @@
       <c r="BX28" s="7">
         <v>6.4793293416599997</v>
       </c>
-      <c r="DM28" s="98">
+      <c r="DM28" s="73">
         <f>1463</f>
         <v>1463</v>
       </c>
-      <c r="DN28" s="99">
+      <c r="DN28" s="74">
         <v>1.471777472527E-3</v>
       </c>
-      <c r="DO28" s="100">
+      <c r="DO28" s="75">
         <v>7.0096346153849997E-3</v>
       </c>
-      <c r="DP28" s="100">
+      <c r="DP28" s="75">
         <v>6.8838697440000001</v>
       </c>
-      <c r="DQ28" s="101">
+      <c r="DQ28" s="76">
         <v>3.9485100000000002E-6</v>
       </c>
       <c r="DR28" s="36">
@@ -7083,19 +7074,19 @@
       <c r="BX29" s="7">
         <v>7.7859016897725004</v>
       </c>
-      <c r="DM29" s="98">
+      <c r="DM29" s="73">
         <v>1460.6</v>
       </c>
-      <c r="DN29" s="99">
+      <c r="DN29" s="74">
         <v>1.2172362637360001E-3</v>
       </c>
-      <c r="DO29" s="100">
+      <c r="DO29" s="75">
         <v>5.7097527472530002E-3</v>
       </c>
-      <c r="DP29" s="100">
+      <c r="DP29" s="75">
         <v>6.6983699919999999</v>
       </c>
-      <c r="DQ29" s="101">
+      <c r="DQ29" s="76">
         <v>1.06478E-5</v>
       </c>
       <c r="DR29" s="36">
@@ -7161,19 +7152,19 @@
       <c r="BX30" s="7">
         <v>8.5190069416200007</v>
       </c>
-      <c r="DM30" s="98">
+      <c r="DM30" s="73">
         <v>1453</v>
       </c>
-      <c r="DN30" s="99">
+      <c r="DN30" s="74">
         <v>1.023480821918E-3</v>
       </c>
-      <c r="DO30" s="100">
+      <c r="DO30" s="75">
         <v>4.9394383561640002E-3</v>
       </c>
-      <c r="DP30" s="100">
+      <c r="DP30" s="75">
         <v>6.5643053880000002</v>
       </c>
-      <c r="DQ30" s="101">
+      <c r="DQ30" s="76">
         <v>5.8924799999999996E-7</v>
       </c>
       <c r="DR30" s="53">
@@ -7239,17 +7230,17 @@
       <c r="BX31" s="7">
         <v>9.3098737154850006</v>
       </c>
-      <c r="DM31" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="DN31" s="106"/>
-      <c r="DO31" s="106"/>
-      <c r="DP31" s="106"/>
-      <c r="DQ31" s="106"/>
-      <c r="DR31" s="106"/>
-      <c r="DS31" s="106"/>
-      <c r="DT31" s="106"/>
-      <c r="DU31" s="107"/>
+      <c r="DM31" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="DN31" s="102"/>
+      <c r="DO31" s="102"/>
+      <c r="DP31" s="102"/>
+      <c r="DQ31" s="102"/>
+      <c r="DR31" s="102"/>
+      <c r="DS31" s="102"/>
+      <c r="DT31" s="102"/>
+      <c r="DU31" s="103"/>
     </row>
     <row r="32" spans="9:125" x14ac:dyDescent="0.2">
       <c r="AF32" s="5">
@@ -7297,35 +7288,35 @@
       <c r="BX32" s="7">
         <v>10.61240620545</v>
       </c>
-      <c r="DM32" s="98">
+      <c r="DM32" s="73">
         <v>1071.8</v>
       </c>
-      <c r="DN32" s="101">
+      <c r="DN32" s="76">
         <v>7.6940000000000003E-13</v>
       </c>
-      <c r="DO32" s="100">
+      <c r="DO32" s="75">
         <v>9.5629000000000006E-2</v>
       </c>
-      <c r="DP32" s="100">
+      <c r="DP32" s="75">
         <v>19.420604099999998</v>
       </c>
-      <c r="DQ32" s="100">
+      <c r="DQ32" s="75">
         <v>0</v>
       </c>
-      <c r="DR32" s="111">
-        <f t="shared" ref="DR31:DR58" si="35">DM32</f>
+      <c r="DR32" s="80">
+        <f t="shared" ref="DR32:DR58" si="35">DM32</f>
         <v>1071.8</v>
       </c>
-      <c r="DS32" s="112">
-        <f t="shared" ref="DS31:DS58" si="36">DQ32*10</f>
+      <c r="DS32" s="81">
+        <f t="shared" ref="DS32:DS58" si="36">DQ32*10</f>
         <v>0</v>
       </c>
-      <c r="DT32" s="112">
-        <f t="shared" ref="DT31:DT58" si="37">DO32*101325</f>
+      <c r="DT32" s="81">
+        <f t="shared" ref="DT32:DT58" si="37">DO32*101325</f>
         <v>9689.6084250000004</v>
       </c>
-      <c r="DU32" s="113">
-        <f t="shared" ref="DU31:DU58" si="38">DN32*101325</f>
+      <c r="DU32" s="82">
+        <f t="shared" ref="DU32:DU58" si="38">DN32*101325</f>
         <v>7.7959455E-8</v>
       </c>
     </row>
@@ -7375,19 +7366,19 @@
       <c r="BX33" s="7">
         <v>11.563797292949999</v>
       </c>
-      <c r="DM33" s="98">
+      <c r="DM33" s="73">
         <v>1265.45</v>
       </c>
-      <c r="DN33" s="101">
+      <c r="DN33" s="76">
         <v>7.6940000000000003E-13</v>
       </c>
-      <c r="DO33" s="100">
+      <c r="DO33" s="75">
         <v>9.3689999999999996E-2</v>
       </c>
-      <c r="DP33" s="100">
+      <c r="DP33" s="75">
         <v>19.701073539999999</v>
       </c>
-      <c r="DQ33" s="101">
+      <c r="DQ33" s="76">
         <v>3.8052500000000002E-5</v>
       </c>
       <c r="DR33" s="36">
@@ -7453,19 +7444,19 @@
       <c r="BX34" s="7">
         <v>12.586269793125</v>
       </c>
-      <c r="DM34" s="98">
+      <c r="DM34" s="73">
         <v>1390.4</v>
       </c>
-      <c r="DN34" s="101">
+      <c r="DN34" s="76">
         <v>2.0974475703324799E-13</v>
       </c>
-      <c r="DO34" s="100">
+      <c r="DO34" s="75">
         <v>9.3370102301790298E-2</v>
       </c>
-      <c r="DP34" s="100">
+      <c r="DP34" s="75">
         <v>22.765169440000001</v>
       </c>
-      <c r="DQ34" s="100">
+      <c r="DQ34" s="75">
         <v>-1.38176E-4</v>
       </c>
       <c r="DR34" s="36">
@@ -7531,19 +7522,19 @@
       <c r="BX35" s="7">
         <v>16.122779791125001</v>
       </c>
-      <c r="DM35" s="98">
+      <c r="DM35" s="73">
         <v>1448.2</v>
       </c>
-      <c r="DN35" s="101">
+      <c r="DN35" s="76">
         <v>5.8913094629155997E-13</v>
       </c>
-      <c r="DO35" s="100">
+      <c r="DO35" s="75">
         <v>9.3260127877237906E-2</v>
       </c>
-      <c r="DP35" s="100">
+      <c r="DP35" s="75">
         <v>20.90048024</v>
       </c>
-      <c r="DQ35" s="101">
+      <c r="DQ35" s="76">
         <v>7.66656E-5</v>
       </c>
       <c r="DR35" s="36">
@@ -7584,19 +7575,19 @@
       <c r="BX36" s="7">
         <v>18.182995279575</v>
       </c>
-      <c r="DM36" s="98">
+      <c r="DM36" s="73">
         <v>1494</v>
       </c>
-      <c r="DN36" s="101">
+      <c r="DN36" s="76">
         <v>9.6851713554987199E-13</v>
       </c>
-      <c r="DO36" s="100">
+      <c r="DO36" s="75">
         <v>9.3150153452685402E-2</v>
       </c>
-      <c r="DP36" s="100">
+      <c r="DP36" s="75">
         <v>20.151102959999999</v>
       </c>
-      <c r="DQ36" s="101">
+      <c r="DQ36" s="76">
         <v>6.7136600000000004E-5</v>
       </c>
       <c r="DR36" s="36">
@@ -7637,19 +7628,19 @@
       <c r="BX37" s="7">
         <v>11.12244525</v>
       </c>
-      <c r="DM37" s="98">
+      <c r="DM37" s="73">
         <v>1496.8</v>
       </c>
-      <c r="DN37" s="101">
+      <c r="DN37" s="76">
         <v>1.34790332480818E-12</v>
       </c>
-      <c r="DO37" s="100">
+      <c r="DO37" s="75">
         <v>9.3040179028132997E-2</v>
       </c>
-      <c r="DP37" s="100">
+      <c r="DP37" s="75">
         <v>18.958005910000001</v>
       </c>
-      <c r="DQ37" s="101">
+      <c r="DQ37" s="76">
         <v>-1.5721699999999999E-5</v>
       </c>
       <c r="DR37" s="36">
@@ -7690,19 +7681,19 @@
       <c r="BX38" s="7">
         <v>12.1123905</v>
       </c>
-      <c r="DM38" s="98">
+      <c r="DM38" s="73">
         <v>1522.9</v>
       </c>
-      <c r="DN38" s="101">
+      <c r="DN38" s="76">
         <v>2.6189340659340702E-12</v>
       </c>
-      <c r="DO38" s="100">
+      <c r="DO38" s="75">
         <v>9.2831318681318706E-2</v>
       </c>
-      <c r="DP38" s="100">
+      <c r="DP38" s="75">
         <v>19.770564839999999</v>
       </c>
-      <c r="DQ38" s="101">
+      <c r="DQ38" s="76">
         <v>-1.7320400000000001E-5</v>
       </c>
       <c r="DR38" s="36">
@@ -7743,19 +7734,19 @@
       <c r="BX39" s="7">
         <v>14.318235749999999</v>
       </c>
-      <c r="DM39" s="98">
+      <c r="DM39" s="73">
         <v>1520.3</v>
       </c>
-      <c r="DN39" s="101">
+      <c r="DN39" s="76">
         <v>1.09945934065934E-11</v>
       </c>
-      <c r="DO39" s="100">
+      <c r="DO39" s="75">
         <v>9.2106703296703299E-2</v>
       </c>
-      <c r="DP39" s="100">
+      <c r="DP39" s="75">
         <v>19.104123600000001</v>
       </c>
-      <c r="DQ39" s="101">
+      <c r="DQ39" s="76">
         <v>7.9136700000000004E-5</v>
       </c>
       <c r="DR39" s="36">
@@ -7796,19 +7787,19 @@
       <c r="BX40" s="7">
         <v>15.541228500000001</v>
       </c>
-      <c r="DM40" s="98">
+      <c r="DM40" s="73">
         <v>1507.2</v>
       </c>
-      <c r="DN40" s="101">
+      <c r="DN40" s="76">
         <v>3.9070109890109902E-11</v>
       </c>
-      <c r="DO40" s="100">
+      <c r="DO40" s="75">
         <v>9.10948351648352E-2</v>
       </c>
-      <c r="DP40" s="100">
+      <c r="DP40" s="75">
         <v>17.341879070000001</v>
       </c>
-      <c r="DQ40" s="101">
+      <c r="DQ40" s="76">
         <v>1.14719E-4</v>
       </c>
       <c r="DR40" s="36">
@@ -7849,19 +7840,19 @@
       <c r="BX41" s="7">
         <v>16.851360750000001</v>
       </c>
-      <c r="DM41" s="98">
+      <c r="DM41" s="73">
         <v>1509.35</v>
       </c>
-      <c r="DN41" s="101">
+      <c r="DN41" s="76">
         <v>1.2559978021977999E-10</v>
       </c>
-      <c r="DO41" s="100">
+      <c r="DO41" s="75">
         <v>8.9708021978021996E-2</v>
       </c>
-      <c r="DP41" s="100">
+      <c r="DP41" s="75">
         <v>17.062399030000002</v>
       </c>
-      <c r="DQ41" s="101">
+      <c r="DQ41" s="76">
         <v>2.68581E-5</v>
       </c>
       <c r="DR41" s="36">
@@ -7902,19 +7893,19 @@
       <c r="BX42" s="7">
         <v>18.9903315</v>
       </c>
-      <c r="DM42" s="98">
+      <c r="DM42" s="73">
         <v>1506.25</v>
       </c>
-      <c r="DN42" s="101">
+      <c r="DN42" s="76">
         <v>3.7769890109890097E-10</v>
       </c>
-      <c r="DO42" s="100">
+      <c r="DO42" s="75">
         <v>8.7830659340659298E-2</v>
       </c>
-      <c r="DP42" s="100">
+      <c r="DP42" s="75">
         <v>17.73538516</v>
       </c>
-      <c r="DQ42" s="101">
+      <c r="DQ42" s="76">
         <v>-6.5017699999999999E-5</v>
       </c>
       <c r="DR42" s="36">
@@ -7955,19 +7946,19 @@
       <c r="BX43" s="7">
         <v>21.352217249999999</v>
       </c>
-      <c r="DM43" s="98">
+      <c r="DM43" s="73">
         <v>1505.75</v>
       </c>
-      <c r="DN43" s="101">
+      <c r="DN43" s="76">
         <v>1.10215384615385E-9</v>
       </c>
-      <c r="DO43" s="100">
+      <c r="DO43" s="75">
         <v>8.5326153846153802E-2</v>
       </c>
-      <c r="DP43" s="100">
+      <c r="DP43" s="75">
         <v>17.25934912</v>
       </c>
-      <c r="DQ43" s="101">
+      <c r="DQ43" s="76">
         <v>8.45119E-5</v>
       </c>
       <c r="DR43" s="36">
@@ -8008,19 +7999,19 @@
       <c r="BX44" s="7">
         <v>23.955256500000001</v>
       </c>
-      <c r="DM44" s="98">
+      <c r="DM44" s="73">
         <v>1499.35</v>
       </c>
-      <c r="DN44" s="101">
+      <c r="DN44" s="76">
         <v>3.26239344262295E-9</v>
       </c>
-      <c r="DO44" s="100">
+      <c r="DO44" s="75">
         <v>8.2041967213114797E-2</v>
       </c>
-      <c r="DP44" s="100">
+      <c r="DP44" s="75">
         <v>19.91254125</v>
       </c>
-      <c r="DQ44" s="100">
+      <c r="DQ44" s="75">
         <v>-1.48345E-4</v>
       </c>
       <c r="DR44" s="36">
@@ -8061,19 +8052,19 @@
       <c r="BX45" s="7">
         <v>21.403893</v>
       </c>
-      <c r="DM45" s="98">
+      <c r="DM45" s="73">
         <v>1507.05</v>
       </c>
-      <c r="DN45" s="101">
+      <c r="DN45" s="76">
         <v>1.0767999999999999E-8</v>
       </c>
-      <c r="DO45" s="100">
+      <c r="DO45" s="75">
         <v>7.7724230769230795E-2</v>
       </c>
-      <c r="DP45" s="100">
+      <c r="DP45" s="75">
         <v>18.33577038</v>
       </c>
-      <c r="DQ45" s="101">
+      <c r="DQ45" s="76">
         <v>8.6091800000000001E-5</v>
       </c>
       <c r="DR45" s="36">
@@ -8114,19 +8105,19 @@
       <c r="BX46" s="7">
         <v>23.11527225</v>
       </c>
-      <c r="DM46" s="98">
+      <c r="DM46" s="73">
         <v>1508</v>
       </c>
-      <c r="DN46" s="101">
+      <c r="DN46" s="76">
         <v>4.5434285714285801E-8</v>
       </c>
-      <c r="DO46" s="100">
+      <c r="DO46" s="75">
         <v>7.2116043956043901E-2</v>
       </c>
-      <c r="DP46" s="100">
+      <c r="DP46" s="75">
         <v>17.76027805</v>
       </c>
-      <c r="DQ46" s="101">
+      <c r="DQ46" s="76">
         <v>8.3999399999999994E-5</v>
       </c>
       <c r="DR46" s="36">
@@ -8167,19 +8158,19 @@
       <c r="BX47" s="7">
         <v>24.9401355</v>
       </c>
-      <c r="DM47" s="98">
+      <c r="DM47" s="73">
         <v>1492.3</v>
       </c>
-      <c r="DN47" s="101">
+      <c r="DN47" s="76">
         <v>4.1426666666666903E-7</v>
       </c>
-      <c r="DO47" s="100">
+      <c r="DO47" s="75">
         <v>6.4710000000000004E-2</v>
       </c>
-      <c r="DP47" s="100">
+      <c r="DP47" s="75">
         <v>16.986882990000002</v>
       </c>
-      <c r="DQ47" s="101">
+      <c r="DQ47" s="76">
         <v>-2.43942E-6</v>
       </c>
       <c r="DR47" s="36">
@@ -8220,19 +8211,19 @@
       <c r="BX48" s="7">
         <v>26.883548999999999</v>
       </c>
-      <c r="DM48" s="98">
+      <c r="DM48" s="73">
         <v>1494</v>
       </c>
-      <c r="DN48" s="101">
+      <c r="DN48" s="76">
         <v>3.7766666666666498E-6</v>
       </c>
-      <c r="DO48" s="100">
+      <c r="DO48" s="75">
         <v>5.5025999999999999E-2</v>
       </c>
-      <c r="DP48" s="100">
+      <c r="DP48" s="75">
         <v>16.444954710000001</v>
       </c>
-      <c r="DQ48" s="101">
+      <c r="DQ48" s="76">
         <v>9.3235399999999998E-5</v>
       </c>
       <c r="DR48" s="36">
@@ -8273,19 +8264,19 @@
       <c r="BX49" s="7">
         <v>31.149331499999999</v>
       </c>
-      <c r="DM49" s="98">
+      <c r="DM49" s="73">
         <v>1491.1</v>
       </c>
-      <c r="DN49" s="101">
+      <c r="DN49" s="76">
         <v>2.5149565217391299E-5</v>
       </c>
-      <c r="DO49" s="100">
+      <c r="DO49" s="75">
         <v>4.27682608695652E-2</v>
       </c>
-      <c r="DP49" s="100">
+      <c r="DP49" s="75">
         <v>15.41028515</v>
       </c>
-      <c r="DQ49" s="100">
+      <c r="DQ49" s="75">
         <v>1.7084500000000001E-4</v>
       </c>
       <c r="DR49" s="36">
@@ -8326,19 +8317,19 @@
       <c r="BX50" s="21">
         <v>37.258215749999998</v>
       </c>
-      <c r="DM50" s="98">
+      <c r="DM50" s="73">
         <v>1487</v>
       </c>
-      <c r="DN50" s="100">
+      <c r="DN50" s="75">
         <v>1.3203333333333401E-4</v>
       </c>
-      <c r="DO50" s="100">
+      <c r="DO50" s="75">
         <v>2.8815E-2</v>
       </c>
-      <c r="DP50" s="100">
+      <c r="DP50" s="75">
         <v>14.36905883</v>
       </c>
-      <c r="DQ50" s="100">
+      <c r="DQ50" s="75">
         <v>1.8076E-4</v>
       </c>
       <c r="DR50" s="36">
@@ -8359,19 +8350,19 @@
       </c>
     </row>
     <row r="51" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM51" s="98">
+      <c r="DM51" s="73">
         <v>1483.7</v>
       </c>
-      <c r="DN51" s="100">
+      <c r="DN51" s="75">
         <v>7.3514545454545399E-4</v>
       </c>
-      <c r="DO51" s="100">
+      <c r="DO51" s="75">
         <v>1.7773636363636401E-2</v>
       </c>
-      <c r="DP51" s="100">
+      <c r="DP51" s="75">
         <v>13.121423760000001</v>
       </c>
-      <c r="DQ51" s="100">
+      <c r="DQ51" s="75">
         <v>3.7550099999999998E-4</v>
       </c>
       <c r="DR51" s="36">
@@ -8392,19 +8383,19 @@
       </c>
     </row>
     <row r="52" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM52" s="98">
+      <c r="DM52" s="73">
         <v>1476.2</v>
       </c>
-      <c r="DN52" s="100">
+      <c r="DN52" s="75">
         <v>1.4059999999999999E-3</v>
       </c>
-      <c r="DO52" s="100">
+      <c r="DO52" s="75">
         <v>1.25166666666667E-2</v>
       </c>
-      <c r="DP52" s="100">
+      <c r="DP52" s="75">
         <v>12.13459991</v>
       </c>
-      <c r="DQ52" s="101">
+      <c r="DQ52" s="76">
         <v>3.8600599999999999E-4</v>
       </c>
       <c r="DR52" s="36">
@@ -8425,19 +8416,19 @@
       </c>
     </row>
     <row r="53" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM53" s="98">
+      <c r="DM53" s="73">
         <v>1468</v>
       </c>
-      <c r="DN53" s="100">
+      <c r="DN53" s="75">
         <v>1.58536263736264E-3</v>
       </c>
-      <c r="DO53" s="100">
+      <c r="DO53" s="75">
         <v>1.0122395604395601E-2</v>
       </c>
-      <c r="DP53" s="100">
+      <c r="DP53" s="75">
         <v>10.344500010000001</v>
       </c>
-      <c r="DQ53" s="101">
+      <c r="DQ53" s="76">
         <v>4.5210600000000002E-4</v>
       </c>
       <c r="DR53" s="36">
@@ -8458,19 +8449,19 @@
       </c>
     </row>
     <row r="54" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM54" s="98">
+      <c r="DM54" s="73">
         <v>1460.2666666666701</v>
       </c>
-      <c r="DN54" s="100">
+      <c r="DN54" s="75">
         <v>1.6603571428571401E-3</v>
       </c>
-      <c r="DO54" s="100">
+      <c r="DO54" s="75">
         <v>8.8085659340659296E-3</v>
       </c>
-      <c r="DP54" s="100">
+      <c r="DP54" s="75">
         <v>9.5284565600000004</v>
       </c>
-      <c r="DQ54" s="101">
+      <c r="DQ54" s="76">
         <v>1.5043899999999999E-4</v>
       </c>
       <c r="DR54" s="36">
@@ -8491,19 +8482,19 @@
       </c>
     </row>
     <row r="55" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM55" s="98">
+      <c r="DM55" s="73">
         <v>1452.4166666666699</v>
       </c>
-      <c r="DN55" s="100">
+      <c r="DN55" s="75">
         <v>1.6470439560439601E-3</v>
       </c>
-      <c r="DO55" s="100">
+      <c r="DO55" s="75">
         <v>7.9095384615384592E-3</v>
       </c>
-      <c r="DP55" s="100">
+      <c r="DP55" s="75">
         <v>9.4208500629999996</v>
       </c>
-      <c r="DQ55" s="101">
+      <c r="DQ55" s="76">
         <v>-2.7113200000000002E-7</v>
       </c>
       <c r="DR55" s="36">
@@ -8524,19 +8515,19 @@
       </c>
     </row>
     <row r="56" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM56" s="98">
+      <c r="DM56" s="73">
         <v>1474</v>
       </c>
-      <c r="DN56" s="100">
+      <c r="DN56" s="75">
         <v>1.53359065934066E-3</v>
       </c>
-      <c r="DO56" s="100">
+      <c r="DO56" s="75">
         <v>7.3000192307692297E-3</v>
       </c>
-      <c r="DP56" s="100">
+      <c r="DP56" s="75">
         <v>9.0024672839999997</v>
       </c>
-      <c r="DQ56" s="101">
+      <c r="DQ56" s="76">
         <v>7.7036099999999992E-6</v>
       </c>
       <c r="DR56" s="36">
@@ -8557,19 +8548,19 @@
       </c>
     </row>
     <row r="57" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM57" s="98">
+      <c r="DM57" s="73">
         <v>1475.9611111111101</v>
       </c>
-      <c r="DN57" s="100">
+      <c r="DN57" s="75">
         <v>1.41296428571429E-3</v>
       </c>
-      <c r="DO57" s="100">
+      <c r="DO57" s="75">
         <v>6.7287500000000004E-3</v>
       </c>
-      <c r="DP57" s="100">
+      <c r="DP57" s="75">
         <v>9.3610704140000003</v>
       </c>
-      <c r="DQ57" s="101">
+      <c r="DQ57" s="76">
         <v>1.3733299999999999E-5</v>
       </c>
       <c r="DR57" s="36">
@@ -8590,19 +8581,19 @@
       </c>
     </row>
     <row r="58" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM58" s="98">
+      <c r="DM58" s="73">
         <v>1471.2</v>
       </c>
-      <c r="DN58" s="100">
+      <c r="DN58" s="75">
         <v>1.33549175824176E-3</v>
       </c>
-      <c r="DO58" s="100">
+      <c r="DO58" s="75">
         <v>6.2941346153846198E-3</v>
       </c>
-      <c r="DP58" s="100">
+      <c r="DP58" s="75">
         <v>9.5111967600000007</v>
       </c>
-      <c r="DQ58" s="101">
+      <c r="DQ58" s="76">
         <v>9.7865800000000008E-6</v>
       </c>
       <c r="DR58" s="53">
@@ -8623,65 +8614,65 @@
       </c>
     </row>
     <row r="59" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM59" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="DN59" s="109"/>
-      <c r="DO59" s="109"/>
-      <c r="DP59" s="109"/>
-      <c r="DQ59" s="109"/>
-      <c r="DR59" s="109"/>
-      <c r="DS59" s="109"/>
-      <c r="DT59" s="109"/>
-      <c r="DU59" s="110"/>
+      <c r="DM59" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="DN59" s="96"/>
+      <c r="DO59" s="96"/>
+      <c r="DP59" s="96"/>
+      <c r="DQ59" s="96"/>
+      <c r="DR59" s="96"/>
+      <c r="DS59" s="96"/>
+      <c r="DT59" s="96"/>
+      <c r="DU59" s="97"/>
     </row>
     <row r="60" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM60" s="98">
+      <c r="DM60" s="73">
         <v>1164.2845</v>
       </c>
-      <c r="DN60" s="101">
+      <c r="DN60" s="76">
         <v>4.6229999999999996E-13</v>
       </c>
-      <c r="DO60" s="100">
+      <c r="DO60" s="75">
         <v>0.1212</v>
       </c>
-      <c r="DP60" s="100">
+      <c r="DP60" s="75">
         <v>50.410872130000001</v>
       </c>
-      <c r="DQ60" s="100">
+      <c r="DQ60" s="75">
         <v>0</v>
       </c>
       <c r="DR60" s="36">
-        <f t="shared" ref="DR59:DR84" si="39">DM60</f>
+        <f t="shared" ref="DR60:DR84" si="39">DM60</f>
         <v>1164.2845</v>
       </c>
-      <c r="DS60" s="112">
-        <f t="shared" ref="DS59:DS84" si="40">DQ60*10</f>
+      <c r="DS60" s="81">
+        <f t="shared" ref="DS60:DS84" si="40">DQ60*10</f>
         <v>0</v>
       </c>
-      <c r="DT60" s="112">
-        <f t="shared" ref="DT59:DT84" si="41">DO60*101325</f>
+      <c r="DT60" s="81">
+        <f t="shared" ref="DT60:DT84" si="41">DO60*101325</f>
         <v>12280.59</v>
       </c>
-      <c r="DU60" s="113">
-        <f t="shared" ref="DU59:DU84" si="42">DN60*101325</f>
+      <c r="DU60" s="82">
+        <f t="shared" ref="DU60:DU84" si="42">DN60*101325</f>
         <v>4.6842547499999998E-8</v>
       </c>
     </row>
     <row r="61" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM61" s="98">
+      <c r="DM61" s="73">
         <v>1295.1101000000001</v>
       </c>
-      <c r="DN61" s="101">
+      <c r="DN61" s="76">
         <v>5.6330000000000003E-13</v>
       </c>
-      <c r="DO61" s="100">
+      <c r="DO61" s="75">
         <v>0.13439999999999999</v>
       </c>
-      <c r="DP61" s="100">
+      <c r="DP61" s="75">
         <v>50.076146880000003</v>
       </c>
-      <c r="DQ61" s="101">
+      <c r="DQ61" s="76">
         <v>-8.9078800000000002E-6</v>
       </c>
       <c r="DR61" s="36">
@@ -8702,19 +8693,19 @@
       </c>
     </row>
     <row r="62" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM62" s="98">
+      <c r="DM62" s="73">
         <v>1431.6207999999999</v>
       </c>
-      <c r="DN62" s="101">
+      <c r="DN62" s="76">
         <v>8.3106371308016897E-13</v>
       </c>
-      <c r="DO62" s="100">
+      <c r="DO62" s="75">
         <v>0.13364050632911401</v>
       </c>
-      <c r="DP62" s="100">
+      <c r="DP62" s="75">
         <v>49.868217719999997</v>
       </c>
-      <c r="DQ62" s="101">
+      <c r="DQ62" s="76">
         <v>-1.63526E-5</v>
       </c>
       <c r="DR62" s="36">
@@ -8735,19 +8726,19 @@
       </c>
     </row>
     <row r="63" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM63" s="98">
+      <c r="DM63" s="73">
         <v>1508.5376000000001</v>
       </c>
-      <c r="DN63" s="101">
+      <c r="DN63" s="76">
         <v>2.2179768907563E-11</v>
       </c>
-      <c r="DO63" s="100">
+      <c r="DO63" s="75">
         <v>0.13247268907563001</v>
       </c>
-      <c r="DP63" s="100">
+      <c r="DP63" s="75">
         <v>50.120267300000002</v>
       </c>
-      <c r="DQ63" s="101">
+      <c r="DQ63" s="76">
         <v>-1.48909E-6</v>
       </c>
       <c r="DR63" s="36">
@@ -8768,19 +8759,19 @@
       </c>
     </row>
     <row r="64" spans="71:125" x14ac:dyDescent="0.2">
-      <c r="DM64" s="98">
+      <c r="DM64" s="73">
         <v>1544.2979</v>
       </c>
-      <c r="DN64" s="101">
+      <c r="DN64" s="76">
         <v>3.0437145183175001E-10</v>
       </c>
-      <c r="DO64" s="100">
+      <c r="DO64" s="75">
         <v>0.13155902306648601</v>
       </c>
-      <c r="DP64" s="100">
+      <c r="DP64" s="75">
         <v>50.133175369999996</v>
       </c>
-      <c r="DQ64" s="101">
+      <c r="DQ64" s="76">
         <v>1.7276099999999999E-5</v>
       </c>
       <c r="DR64" s="36">
@@ -8801,19 +8792,19 @@
       </c>
     </row>
     <row r="65" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM65" s="98">
+      <c r="DM65" s="73">
         <v>1562.9151999999999</v>
       </c>
-      <c r="DN65" s="101">
+      <c r="DN65" s="76">
         <v>7.4019777476255098E-10</v>
       </c>
-      <c r="DO65" s="100">
+      <c r="DO65" s="75">
         <v>0.13085345997286299</v>
       </c>
-      <c r="DP65" s="100">
+      <c r="DP65" s="75">
         <v>49.645765660000002</v>
       </c>
-      <c r="DQ65" s="101">
+      <c r="DQ65" s="76">
         <v>5.1564399999999997E-5</v>
       </c>
       <c r="DR65" s="36">
@@ -8834,19 +8825,19 @@
       </c>
     </row>
     <row r="66" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM66" s="98">
+      <c r="DM66" s="73">
         <v>1571.491</v>
       </c>
-      <c r="DN66" s="101">
+      <c r="DN66" s="76">
         <v>1.1760240976933501E-9</v>
       </c>
-      <c r="DO66" s="100">
+      <c r="DO66" s="75">
         <v>0.13014789687924</v>
       </c>
-      <c r="DP66" s="100">
+      <c r="DP66" s="75">
         <v>49.908661530000003</v>
       </c>
-      <c r="DQ66" s="101">
+      <c r="DQ66" s="76">
         <v>3.0399099999999998E-5</v>
       </c>
       <c r="DR66" s="36">
@@ -8867,19 +8858,19 @@
       </c>
     </row>
     <row r="67" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM67" s="98">
+      <c r="DM67" s="73">
         <v>1564.8912</v>
       </c>
-      <c r="DN67" s="101">
+      <c r="DN67" s="76">
         <v>1.6118504206241499E-9</v>
       </c>
-      <c r="DO67" s="100">
+      <c r="DO67" s="75">
         <v>0.12944233378561701</v>
       </c>
-      <c r="DP67" s="100">
+      <c r="DP67" s="75">
         <v>49.571411150000003</v>
       </c>
-      <c r="DQ67" s="101">
+      <c r="DQ67" s="76">
         <v>8.2621700000000002E-5</v>
       </c>
       <c r="DR67" s="36">
@@ -8900,19 +8891,19 @@
       </c>
     </row>
     <row r="68" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM68" s="98">
+      <c r="DM68" s="73">
         <v>1563.5351000000001</v>
       </c>
-      <c r="DN68" s="101">
+      <c r="DN68" s="76">
         <v>5.1669797468354497E-8</v>
       </c>
-      <c r="DO68" s="100">
+      <c r="DO68" s="75">
         <v>0.12638565400843901</v>
       </c>
-      <c r="DP68" s="100">
+      <c r="DP68" s="75">
         <v>49.153720370000002</v>
       </c>
-      <c r="DQ68" s="101">
+      <c r="DQ68" s="76">
         <v>6.1025700000000001E-5</v>
       </c>
       <c r="DR68" s="36">
@@ -8933,19 +8924,19 @@
       </c>
     </row>
     <row r="69" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM69" s="98">
+      <c r="DM69" s="73">
         <v>1557.6030000000001</v>
       </c>
-      <c r="DN69" s="101">
+      <c r="DN69" s="76">
         <v>7.6892430379746905E-7</v>
       </c>
-      <c r="DO69" s="100">
+      <c r="DO69" s="75">
         <v>0.12196835443038</v>
       </c>
-      <c r="DP69" s="100">
+      <c r="DP69" s="75">
         <v>48.824479869999998</v>
       </c>
-      <c r="DQ69" s="101">
+      <c r="DQ69" s="76">
         <v>9.51303E-5</v>
       </c>
       <c r="DR69" s="36">
@@ -8966,19 +8957,19 @@
       </c>
     </row>
     <row r="70" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM70" s="98">
+      <c r="DM70" s="73">
         <v>1546.8978</v>
       </c>
-      <c r="DN70" s="101">
+      <c r="DN70" s="76">
         <v>7.7082352941176398E-6</v>
       </c>
-      <c r="DO70" s="100">
+      <c r="DO70" s="75">
         <v>0.115972268907563</v>
       </c>
-      <c r="DP70" s="100">
+      <c r="DP70" s="75">
         <v>48.375320019999997</v>
       </c>
-      <c r="DQ70" s="101">
+      <c r="DQ70" s="76">
         <v>4.0681900000000001E-5</v>
       </c>
       <c r="DR70" s="36">
@@ -8999,19 +8990,19 @@
       </c>
     </row>
     <row r="71" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM71" s="98">
+      <c r="DM71" s="73">
         <v>1545.7325000000001</v>
       </c>
-      <c r="DN71" s="101">
+      <c r="DN71" s="76">
         <v>4.60794092827004E-5</v>
       </c>
-      <c r="DO71" s="100">
+      <c r="DO71" s="75">
         <v>0.108268776371308</v>
       </c>
-      <c r="DP71" s="100">
+      <c r="DP71" s="75">
         <v>47.353582459999998</v>
       </c>
-      <c r="DQ71" s="100">
+      <c r="DQ71" s="75">
         <v>1.3399199999999999E-4</v>
       </c>
       <c r="DR71" s="36">
@@ -9032,19 +9023,19 @@
       </c>
     </row>
     <row r="72" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM72" s="98">
+      <c r="DM72" s="73">
         <v>1540.8237999999999</v>
       </c>
-      <c r="DN72" s="100">
+      <c r="DN72" s="75">
         <v>1.7168860759493701E-4</v>
       </c>
-      <c r="DO72" s="100">
+      <c r="DO72" s="75">
         <v>9.9219493670886102E-2</v>
       </c>
-      <c r="DP72" s="100">
+      <c r="DP72" s="75">
         <v>43.470296730000001</v>
       </c>
-      <c r="DQ72" s="100">
+      <c r="DQ72" s="75">
         <v>2.7213399999999999E-4</v>
       </c>
       <c r="DR72" s="36">
@@ -9065,19 +9056,19 @@
       </c>
     </row>
     <row r="73" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM73" s="98">
+      <c r="DM73" s="73">
         <v>1537.2167999999999</v>
       </c>
-      <c r="DN73" s="100">
+      <c r="DN73" s="75">
         <v>4.76435294117647E-4</v>
       </c>
-      <c r="DO73" s="100">
+      <c r="DO73" s="75">
         <v>9.0118571428571395E-2</v>
       </c>
-      <c r="DP73" s="100">
+      <c r="DP73" s="75">
         <v>42.199245619999999</v>
       </c>
-      <c r="DQ73" s="100">
+      <c r="DQ73" s="75">
         <v>3.9260299999999999E-4</v>
       </c>
       <c r="DR73" s="36">
@@ -9098,19 +9089,19 @@
       </c>
     </row>
     <row r="74" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM74" s="98">
+      <c r="DM74" s="73">
         <v>1537.0857000000001</v>
       </c>
-      <c r="DN74" s="100">
+      <c r="DN74" s="75">
         <v>7.9996470588235302E-4</v>
       </c>
-      <c r="DO74" s="100">
+      <c r="DO74" s="75">
         <v>8.3975714285714306E-2</v>
       </c>
-      <c r="DP74" s="100">
+      <c r="DP74" s="75">
         <v>35.28361048</v>
       </c>
-      <c r="DQ74" s="100">
+      <c r="DQ74" s="75">
         <v>7.13111E-4</v>
       </c>
       <c r="DR74" s="36">
@@ -9131,19 +9122,19 @@
       </c>
     </row>
     <row r="75" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM75" s="98">
+      <c r="DM75" s="73">
         <v>1531.9174</v>
       </c>
-      <c r="DN75" s="100">
+      <c r="DN75" s="75">
         <v>1.04558902953587E-3</v>
       </c>
-      <c r="DO75" s="100">
+      <c r="DO75" s="75">
         <v>7.9818354430379698E-2</v>
       </c>
-      <c r="DP75" s="100">
+      <c r="DP75" s="75">
         <v>30.253904800000001</v>
       </c>
-      <c r="DQ75" s="100">
+      <c r="DQ75" s="75">
         <v>1.239839E-3</v>
       </c>
       <c r="DR75" s="36">
@@ -9164,19 +9155,19 @@
       </c>
     </row>
     <row r="76" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM76" s="98">
+      <c r="DM76" s="73">
         <v>1525.9643000000001</v>
       </c>
-      <c r="DN76" s="100">
+      <c r="DN76" s="75">
         <v>1.22063291139241E-3</v>
       </c>
-      <c r="DO76" s="100">
+      <c r="DO76" s="75">
         <v>7.7039957805907194E-2</v>
       </c>
-      <c r="DP76" s="100">
+      <c r="DP76" s="75">
         <v>29.669246959999999</v>
       </c>
-      <c r="DQ76" s="100">
+      <c r="DQ76" s="75">
         <v>3.681124E-3</v>
       </c>
       <c r="DR76" s="36">
@@ -9197,19 +9188,19 @@
       </c>
     </row>
     <row r="77" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM77" s="98">
+      <c r="DM77" s="73">
         <v>1524.7409</v>
       </c>
-      <c r="DN77" s="100">
+      <c r="DN77" s="75">
         <v>1.3265822784810099E-3</v>
       </c>
-      <c r="DO77" s="100">
+      <c r="DO77" s="75">
         <v>7.5209999999999999E-2</v>
       </c>
-      <c r="DP77" s="100">
+      <c r="DP77" s="75">
         <v>26.15554135</v>
       </c>
-      <c r="DQ77" s="100">
+      <c r="DQ77" s="75">
         <v>3.3324639999999998E-3</v>
       </c>
       <c r="DR77" s="36">
@@ -9230,19 +9221,19 @@
       </c>
     </row>
     <row r="78" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM78" s="98">
+      <c r="DM78" s="73">
         <v>1528.5847000000001</v>
       </c>
-      <c r="DN78" s="100">
+      <c r="DN78" s="75">
         <v>1.3802436974789899E-3</v>
       </c>
-      <c r="DO78" s="100">
+      <c r="DO78" s="75">
         <v>7.4013991596638698E-2</v>
       </c>
-      <c r="DP78" s="100">
+      <c r="DP78" s="75">
         <v>22.944118379999999</v>
       </c>
-      <c r="DQ78" s="100">
+      <c r="DQ78" s="75">
         <v>1.595143E-3</v>
       </c>
       <c r="DR78" s="36">
@@ -9263,19 +9254,19 @@
       </c>
     </row>
     <row r="79" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM79" s="98">
+      <c r="DM79" s="73">
         <v>1526.8405</v>
       </c>
-      <c r="DN79" s="100">
+      <c r="DN79" s="75">
         <v>1.41555696202532E-3</v>
       </c>
-      <c r="DO79" s="100">
+      <c r="DO79" s="75">
         <v>7.3222025316455705E-2</v>
       </c>
-      <c r="DP79" s="100">
+      <c r="DP79" s="75">
         <v>21.812642929999999</v>
       </c>
-      <c r="DQ79" s="100">
+      <c r="DQ79" s="75">
         <v>8.9205999999999997E-4</v>
       </c>
       <c r="DR79" s="36">
@@ -9296,19 +9287,19 @@
       </c>
     </row>
     <row r="80" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM80" s="98">
+      <c r="DM80" s="73">
         <v>1514.6347000000001</v>
       </c>
-      <c r="DN80" s="100">
+      <c r="DN80" s="75">
         <v>1.4096497890295401E-3</v>
       </c>
-      <c r="DO80" s="100">
+      <c r="DO80" s="75">
         <v>7.2715696202531696E-2</v>
       </c>
-      <c r="DP80" s="100">
+      <c r="DP80" s="75">
         <v>18.153444369999999</v>
       </c>
-      <c r="DQ80" s="101">
+      <c r="DQ80" s="76">
         <v>3.8708699999999999E-4</v>
       </c>
       <c r="DR80" s="36">
@@ -9329,19 +9320,19 @@
       </c>
     </row>
     <row r="81" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM81" s="98">
+      <c r="DM81" s="73">
         <v>1518.3385000000001</v>
       </c>
-      <c r="DN81" s="100">
+      <c r="DN81" s="75">
         <v>1.3714472573839701E-3</v>
       </c>
-      <c r="DO81" s="100">
+      <c r="DO81" s="75">
         <v>7.2389620253164602E-2</v>
       </c>
-      <c r="DP81" s="100">
+      <c r="DP81" s="75">
         <v>16.19929522</v>
       </c>
-      <c r="DQ81" s="101">
+      <c r="DQ81" s="76">
         <v>1.2920270000000001E-3</v>
       </c>
       <c r="DR81" s="36">
@@ -9362,19 +9353,19 @@
       </c>
     </row>
     <row r="82" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM82" s="98">
+      <c r="DM82" s="73">
         <v>1513.4128000000001</v>
       </c>
-      <c r="DN82" s="100">
+      <c r="DN82" s="75">
         <v>1.3181218487394999E-3</v>
       </c>
-      <c r="DO82" s="100">
+      <c r="DO82" s="75">
         <v>7.2169663865546199E-2</v>
       </c>
-      <c r="DP82" s="100">
+      <c r="DP82" s="75">
         <v>14.6465566</v>
       </c>
-      <c r="DQ82" s="101">
+      <c r="DQ82" s="76">
         <v>4.5083200000000002E-4</v>
       </c>
       <c r="DR82" s="36">
@@ -9395,19 +9386,19 @@
       </c>
     </row>
     <row r="83" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM83" s="98">
+      <c r="DM83" s="73">
         <v>1510.4333999999999</v>
       </c>
-      <c r="DN83" s="100">
+      <c r="DN83" s="75">
         <v>1.2539282700421901E-3</v>
       </c>
-      <c r="DO83" s="100">
+      <c r="DO83" s="75">
         <v>7.2019156118143496E-2</v>
       </c>
-      <c r="DP83" s="100">
+      <c r="DP83" s="75">
         <v>13.125267300000001</v>
       </c>
-      <c r="DQ83" s="101">
+      <c r="DQ83" s="76">
         <v>1.1267409999999999E-3</v>
       </c>
       <c r="DR83" s="36">
@@ -9428,19 +9419,19 @@
       </c>
     </row>
     <row r="84" spans="117:125" x14ac:dyDescent="0.2">
-      <c r="DM84" s="102">
+      <c r="DM84" s="77">
         <v>1511.4931999999999</v>
       </c>
-      <c r="DN84" s="103">
+      <c r="DN84" s="78">
         <v>1.18193670886076E-3</v>
       </c>
-      <c r="DO84" s="103">
+      <c r="DO84" s="78">
         <v>7.1914936708860802E-2</v>
       </c>
-      <c r="DP84" s="103">
+      <c r="DP84" s="78">
         <v>12.41086213</v>
       </c>
-      <c r="DQ84" s="104">
+      <c r="DQ84" s="79">
         <v>6.8403099999999998E-4</v>
       </c>
       <c r="DR84" s="53">
@@ -9522,8 +9513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AW80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9581,160 +9572,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B2" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
-      <c r="Q2" s="79" t="s">
+      <c r="B2" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="Q2" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="81"/>
-      <c r="X2" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="87"/>
-      <c r="AK2" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="78"/>
-      <c r="AR2" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="81"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
+      <c r="X2" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AK2" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="88"/>
+      <c r="AR2" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="91"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
-      <c r="Q3" s="73" t="s">
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="Q3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="73" t="s">
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
-      <c r="X3" s="88" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="85"/>
+      <c r="X3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="90"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="106"/>
       <c r="AB3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AC3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="93"/>
-      <c r="AK3" s="73" t="s">
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="109"/>
+      <c r="AK3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="73" t="s">
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="75"/>
-      <c r="AR3" s="73" t="s">
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="85"/>
+      <c r="AR3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="73" t="s">
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="75"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="85"/>
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
       <c r="I4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>5</v>
@@ -9743,16 +9734,16 @@
         <v>6</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>5</v>
@@ -9761,32 +9752,32 @@
         <v>6</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X4" s="24" t="s">
         <v>21</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="25"/>
       <c r="AC4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AE4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="AE4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="AG4" s="25" t="s">
         <v>5</v>
@@ -9795,16 +9786,16 @@
         <v>6</v>
       </c>
       <c r="AI4" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="AL4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="AM4" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="AN4" s="14" t="s">
         <v>5</v>
@@ -9813,16 +9804,16 @@
         <v>6</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AR4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AS4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AT4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AU4" s="14" t="s">
         <v>5</v>
@@ -9831,26 +9822,26 @@
         <v>6</v>
       </c>
       <c r="AW4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
+      <c r="B5" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94"/>
       <c r="Q5" s="5">
         <v>1815</v>
       </c>
@@ -9872,20 +9863,20 @@
         <f>S5</f>
         <v>23207.477999999999</v>
       </c>
-      <c r="X5" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="84"/>
+      <c r="X5" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="94"/>
       <c r="AK5" s="30">
         <v>887.61571586972696</v>
       </c>
@@ -9948,10 +9939,10 @@
         <v>10132.5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="36">
         <f>E6/$H$9/$H$13*$H$11</f>
@@ -10016,7 +10007,7 @@
         <v>3039.75</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC6" s="6">
         <f>Z6/1000000/$AB$9</f>
@@ -10268,10 +10259,10 @@
         <v>10132.5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="36">
         <f t="shared" si="11"/>
@@ -10589,10 +10580,10 @@
         <v>10132.5</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="36">
         <f t="shared" si="11"/>
@@ -10657,7 +10648,7 @@
         <v>3039.75</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="16"/>
@@ -10911,10 +10902,10 @@
         <v>10132.5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="36">
         <f t="shared" si="11"/>
@@ -10979,7 +10970,7 @@
         <v>3039.75</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="16"/>
@@ -11234,7 +11225,7 @@
         <v>10132.5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="36">
@@ -12351,38 +12342,38 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
-      <c r="X23" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="84"/>
+      <c r="X23" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="94"/>
     </row>
     <row r="24" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B24" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="84"/>
+      <c r="B24" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
       <c r="X24" s="5">
         <v>1000</v>
       </c>
@@ -13373,20 +13364,20 @@
         <f t="shared" si="39"/>
         <v>10132.5</v>
       </c>
-      <c r="X35" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="83"/>
-      <c r="AI35" s="84"/>
+      <c r="X35" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="94"/>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
@@ -14019,22 +14010,22 @@
       </c>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B43" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="84"/>
+      <c r="B43" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="94"/>
       <c r="X43" s="5">
         <v>1000</v>
       </c>
@@ -14215,20 +14206,20 @@
         <f t="shared" ref="O45:O61" si="55">F45</f>
         <v>10132.5</v>
       </c>
-      <c r="X45" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y45" s="83"/>
-      <c r="Z45" s="83"/>
-      <c r="AA45" s="83"/>
-      <c r="AB45" s="83"/>
-      <c r="AC45" s="83"/>
-      <c r="AD45" s="83"/>
-      <c r="AE45" s="83"/>
-      <c r="AF45" s="83"/>
-      <c r="AG45" s="83"/>
-      <c r="AH45" s="83"/>
-      <c r="AI45" s="84"/>
+      <c r="X45" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="93"/>
+      <c r="AC45" s="93"/>
+      <c r="AD45" s="93"/>
+      <c r="AE45" s="93"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="93"/>
+      <c r="AH45" s="93"/>
+      <c r="AI45" s="94"/>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="5">
@@ -15177,20 +15168,20 @@
         <f t="shared" si="55"/>
         <v>10132.5</v>
       </c>
-      <c r="X56" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y56" s="83"/>
-      <c r="Z56" s="83"/>
-      <c r="AA56" s="83"/>
-      <c r="AB56" s="83"/>
-      <c r="AC56" s="83"/>
-      <c r="AD56" s="83"/>
-      <c r="AE56" s="83"/>
-      <c r="AF56" s="83"/>
-      <c r="AG56" s="83"/>
-      <c r="AH56" s="83"/>
-      <c r="AI56" s="84"/>
+      <c r="X56" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y56" s="93"/>
+      <c r="Z56" s="93"/>
+      <c r="AA56" s="93"/>
+      <c r="AB56" s="93"/>
+      <c r="AC56" s="93"/>
+      <c r="AD56" s="93"/>
+      <c r="AE56" s="93"/>
+      <c r="AF56" s="93"/>
+      <c r="AG56" s="93"/>
+      <c r="AH56" s="93"/>
+      <c r="AI56" s="94"/>
     </row>
     <row r="57" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B57" s="5">
@@ -15643,22 +15634,22 @@
       </c>
     </row>
     <row r="62" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B62" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="84"/>
+      <c r="B62" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="94"/>
       <c r="X62" s="5">
         <v>1000</v>
       </c>
@@ -16854,7 +16845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AS65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AM1" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -16909,146 +16900,146 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B2" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="O2" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="81"/>
-      <c r="AA2" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="81"/>
-      <c r="AN2" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="78"/>
+      <c r="B2" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+      <c r="O2" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="91"/>
+      <c r="AA2" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="91"/>
+      <c r="AN2" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="88"/>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="O3" s="73" t="s">
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="O3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="85"/>
       <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-      <c r="AA3" s="82" t="s">
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="94"/>
+      <c r="AA3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="83"/>
+      <c r="AB3" s="93"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="82" t="s">
+      <c r="AE3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="84"/>
-      <c r="AN3" s="73" t="s">
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="94"/>
+      <c r="AN3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="73" t="s">
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="75"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="85"/>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>5</v>
@@ -17057,27 +17048,27 @@
         <v>6</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="12"/>
       <c r="S4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="V4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>5</v>
@@ -17086,30 +17077,30 @@
         <v>6</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AB4" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="57"/>
       <c r="AE4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH4" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="AH4" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="AI4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ4" s="12" t="s">
         <v>5</v>
@@ -17118,16 +17109,16 @@
         <v>6</v>
       </c>
       <c r="AL4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP4" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AQ4" s="14" t="s">
         <v>5</v>
@@ -17136,51 +17127,51 @@
         <v>6</v>
       </c>
       <c r="AS4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="84"/>
-      <c r="O5" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="84"/>
-      <c r="AA5" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="84"/>
+      <c r="B5" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="O5" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="94"/>
+      <c r="AA5" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="94"/>
       <c r="AN5" s="30">
         <v>887.61571586972696</v>
       </c>
@@ -17223,7 +17214,7 @@
         <v>0.1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="36">
         <f>(E7-E6)/(C7-C6)/60</f>
@@ -17256,10 +17247,10 @@
         <v>102.70322668937401</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6" s="6">
         <f>((P6-P7)/100*$Q$9)/((O7-O6)/$Q$7*60)</f>
@@ -17442,10 +17433,10 @@
         <v>3.6272040302267099E-5</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE7" s="6">
         <f t="shared" ref="AE7:AE16" si="17">AB7*$AC$10</f>
@@ -17521,7 +17512,7 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" ref="H8:H15" si="23">0.5*((E8-E7)/(C8-C7)/60+(E9-E8)/(C9-C8)/60)</f>
@@ -17554,7 +17545,7 @@
         <v>98.382473693814205</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>29</v>
@@ -17746,7 +17737,7 @@
         <v>1.17884130982367E-4</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>29</v>
@@ -17825,7 +17816,7 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="36">
         <f t="shared" si="23"/>
@@ -17859,7 +17850,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="24"/>
@@ -18049,7 +18040,7 @@
       </c>
       <c r="AC11" s="6"/>
       <c r="AD11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE11" s="6">
         <f t="shared" si="17"/>
@@ -18125,7 +18116,7 @@
         <v>0.1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="36">
         <f t="shared" si="23"/>
@@ -18159,7 +18150,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="24"/>
@@ -18348,7 +18339,7 @@
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE13" s="6">
         <f t="shared" si="17"/>
@@ -18424,7 +18415,7 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="36">
         <f t="shared" si="23"/>
@@ -18458,7 +18449,7 @@
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="24"/>
@@ -18647,7 +18638,7 @@
       </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" si="17"/>
@@ -18806,20 +18797,20 @@
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B17" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
+      <c r="B17" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
       <c r="O17" s="59">
         <v>890.27431421446397</v>
       </c>
@@ -18856,20 +18847,20 @@
         <f t="shared" si="16"/>
         <v>10132.5</v>
       </c>
-      <c r="AA17" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="84"/>
+      <c r="AA17" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="94"/>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -18889,7 +18880,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="36">
         <f>(E19-E18)/(C19-C18)/60</f>
@@ -19035,19 +19026,19 @@
         <f t="shared" ref="M19:M30" si="35">F19*10^6</f>
         <v>100000</v>
       </c>
-      <c r="O19" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="84"/>
+      <c r="O19" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="94"/>
       <c r="AA19" s="3">
         <v>1196.7409948541999</v>
       </c>
@@ -20238,20 +20229,20 @@
         <f t="shared" si="47"/>
         <v>50662.5</v>
       </c>
-      <c r="AA29" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="83"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="84"/>
+      <c r="AA29" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="93"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="93"/>
+      <c r="AL29" s="94"/>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B30" s="22">
@@ -20743,19 +20734,19 @@
       <c r="K35" s="6"/>
       <c r="L35" s="37"/>
       <c r="M35" s="6"/>
-      <c r="O35" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="84"/>
+      <c r="O35" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="94"/>
       <c r="AA35" s="3">
         <v>1446.82675814751</v>
       </c>
@@ -21512,18 +21503,18 @@
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
       <c r="O47" s="59">
         <v>821.69576059850397</v>
       </c>
